--- a/data/trans_orig/P9_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P9_1_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB40C123-8D22-46CD-8174-DE105EAA8864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2AC07FB-C291-48DC-ACED-3BBD17FABE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6DBE9004-64DA-4DEA-8D8C-631A86291A5E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1FEAC95B-5081-4733-8A2B-A72417602656}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>11,05%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,95%</t>
   </si>
   <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>84,63%</t>
   </si>
   <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1714 +140,1714 @@
     <t>9,51%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>15,02%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>21,57%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>78,43%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C33165-471C-405D-A42B-A7A719D302F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA5CBF8-70D1-4214-84DA-11C623829D72}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3659,7 +3659,7 @@
         <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3674,13 @@
         <v>2980126</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>2767</v>
@@ -3689,28 +3689,28 @@
         <v>2827064</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>5681</v>
       </c>
       <c r="N29" s="7">
-        <v>5807189</v>
+        <v>5807190</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3752,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3790,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0E1753-B6A9-4BC8-BA93-F15CB2AC5C36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BD7CD0-5CB1-4FD2-912C-F6A115AC4C15}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3807,7 +3807,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3912,39 +3912,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,39 +3957,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,39 +4002,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4051,13 @@
         <v>55636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -4066,13 +4066,13 @@
         <v>99391</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -4081,13 +4081,13 @@
         <v>155027</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4102,13 @@
         <v>449891</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>390</v>
@@ -4117,13 +4117,13 @@
         <v>424374</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>817</v>
@@ -4132,13 +4132,13 @@
         <v>874265</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4206,13 @@
         <v>39817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4221,13 +4221,13 @@
         <v>67053</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -4236,13 +4236,13 @@
         <v>106870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4257,13 @@
         <v>284229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>256</v>
@@ -4272,13 +4272,13 @@
         <v>273967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>539</v>
@@ -4287,13 +4287,13 @@
         <v>558196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4361,13 @@
         <v>100531</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>196</v>
@@ -4376,13 +4376,13 @@
         <v>207261</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>293</v>
@@ -4391,13 +4391,13 @@
         <v>307791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4412,13 @@
         <v>568189</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -4427,13 +4427,13 @@
         <v>468935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>960</v>
@@ -4442,13 +4442,13 @@
         <v>1037125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4516,13 @@
         <v>26695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -4531,13 +4531,13 @@
         <v>54769</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4546,13 +4546,13 @@
         <v>81464</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4567,13 @@
         <v>185923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -4582,13 +4582,13 @@
         <v>164822</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>331</v>
@@ -4597,13 +4597,13 @@
         <v>350745</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4671,13 @@
         <v>37418</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -4686,13 +4686,13 @@
         <v>48657</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -4701,13 +4701,13 @@
         <v>86075</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4722,13 @@
         <v>236563</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -4737,13 +4737,13 @@
         <v>231374</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>447</v>
@@ -4752,13 +4752,13 @@
         <v>467937</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4826,13 @@
         <v>61676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H22" s="7">
         <v>100</v>
@@ -4841,13 +4841,13 @@
         <v>110696</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -4856,13 +4856,13 @@
         <v>172372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4877,13 @@
         <v>601112</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>536</v>
@@ -4892,13 +4892,13 @@
         <v>583157</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>1096</v>
@@ -4907,13 +4907,13 @@
         <v>1184269</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +4981,13 @@
         <v>89551</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -4996,13 +4996,13 @@
         <v>155089</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M25" s="7">
         <v>219</v>
@@ -5011,13 +5011,13 @@
         <v>244640</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5032,13 @@
         <v>689547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>287</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H26" s="7">
         <v>616</v>
@@ -5047,13 +5047,13 @@
         <v>668764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M26" s="7">
         <v>1255</v>
@@ -5062,13 +5062,13 @@
         <v>1358311</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5136,13 @@
         <v>411325</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="H28" s="7">
         <v>687</v>
@@ -5151,13 +5151,13 @@
         <v>742915</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M28" s="7">
         <v>1062</v>
@@ -5166,13 +5166,13 @@
         <v>1154239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5187,13 @@
         <v>3015454</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H29" s="7">
         <v>2611</v>
@@ -5202,13 +5202,13 @@
         <v>2815394</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>5445</v>
@@ -5217,13 +5217,13 @@
         <v>5830849</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,7 +5279,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5303,7 +5303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19230B69-E5F7-4549-A301-D86BE7E76454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34C81A6-7F19-4B52-8AE3-DEBA437789F8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5320,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5427,13 +5427,13 @@
         <v>36513</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -5442,13 +5442,13 @@
         <v>75818</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -5457,13 +5457,13 @@
         <v>112331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5478,13 @@
         <v>257248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7">
         <v>209</v>
@@ -5493,13 +5493,13 @@
         <v>212885</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>441</v>
@@ -5508,13 +5508,13 @@
         <v>470133</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5582,13 @@
         <v>42702</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -5597,13 +5597,13 @@
         <v>86560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -5612,13 +5612,13 @@
         <v>129262</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5633,13 @@
         <v>459873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -5648,13 +5648,13 @@
         <v>436524</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>843</v>
@@ -5663,13 +5663,13 @@
         <v>896397</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5737,13 @@
         <v>27498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -5752,13 +5752,13 @@
         <v>41110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -5767,13 +5767,13 @@
         <v>68608</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5788,13 @@
         <v>291067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>297</v>
@@ -5803,13 +5803,13 @@
         <v>295199</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>602</v>
@@ -5818,13 +5818,13 @@
         <v>586266</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5892,13 @@
         <v>62944</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -5907,13 +5907,13 @@
         <v>125882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>170</v>
@@ -5922,13 +5922,13 @@
         <v>188827</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5943,13 @@
         <v>307020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>248</v>
@@ -5958,13 +5958,13 @@
         <v>261401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>542</v>
@@ -5973,13 +5973,13 @@
         <v>568420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6047,13 @@
         <v>17363</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -6062,13 +6062,13 @@
         <v>29183</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6077,13 +6077,13 @@
         <v>46546</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6098,13 @@
         <v>193858</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -6113,13 +6113,13 @@
         <v>189404</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -6128,13 +6128,13 @@
         <v>383262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6202,13 @@
         <v>43702</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -6217,13 +6217,13 @@
         <v>66479</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
@@ -6232,13 +6232,13 @@
         <v>110181</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6253,13 @@
         <v>219421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -6268,13 +6268,13 @@
         <v>206636</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M20" s="7">
         <v>419</v>
@@ -6283,13 +6283,13 @@
         <v>426057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6357,13 @@
         <v>71804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>125</v>
@@ -6372,13 +6372,13 @@
         <v>144634</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>416</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -6387,13 +6387,13 @@
         <v>216437</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6408,13 @@
         <v>584754</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="H23" s="7">
         <v>521</v>
@@ -6423,13 +6423,13 @@
         <v>546660</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
         <v>1036</v>
@@ -6438,13 +6438,13 @@
         <v>1131415</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6512,13 @@
         <v>53175</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>98</v>
@@ -6530,10 +6530,10 @@
         <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>150</v>
@@ -6542,13 +6542,13 @@
         <v>172827</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6563,13 @@
         <v>725408</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H26" s="7">
         <v>657</v>
@@ -6581,7 +6581,7 @@
         <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>120</v>
+        <v>437</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>438</v>
@@ -6667,7 +6667,7 @@
         <v>355699</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>442</v>
@@ -6697,13 +6697,13 @@
         <v>1045018</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>447</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>270</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6718,13 @@
         <v>3038651</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H29" s="7">
         <v>2742</v>
@@ -6733,13 +6733,13 @@
         <v>2855223</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M29" s="7">
         <v>5627</v>
@@ -6748,13 +6748,13 @@
         <v>5893874</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>279</v>
+        <v>454</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6810,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6834,7 +6834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5923A75A-42E5-4B97-85F2-C1C72DDFDD35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE21A2EC-B5E2-4615-B7DA-2E79E54206D5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6851,7 +6851,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6958,13 +6958,13 @@
         <v>25134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H4" s="7">
         <v>79</v>
@@ -6973,13 +6973,13 @@
         <v>35626</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>356</v>
+        <v>462</v>
       </c>
       <c r="M4" s="7">
         <v>112</v>
@@ -6988,13 +6988,13 @@
         <v>60760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>463</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,13 +7009,13 @@
         <v>235164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H5" s="7">
         <v>459</v>
@@ -7024,13 +7024,13 @@
         <v>235777</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>363</v>
+        <v>470</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="M5" s="7">
         <v>757</v>
@@ -7039,13 +7039,13 @@
         <v>470940</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>472</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7113,13 @@
         <v>95919</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>476</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H7" s="7">
         <v>199</v>
@@ -7128,13 +7128,13 @@
         <v>137469</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>472</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M7" s="7">
         <v>284</v>
@@ -7143,13 +7143,13 @@
         <v>233387</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7164,13 @@
         <v>423378</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>485</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -7179,13 +7179,13 @@
         <v>417097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>481</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>815</v>
@@ -7194,13 +7194,13 @@
         <v>840477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7268,13 @@
         <v>48017</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>491</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="H10" s="7">
         <v>120</v>
@@ -7283,13 +7283,13 @@
         <v>70961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="M10" s="7">
         <v>181</v>
@@ -7298,13 +7298,13 @@
         <v>118978</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7319,13 @@
         <v>274223</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H11" s="7">
         <v>415</v>
@@ -7334,13 +7334,13 @@
         <v>301652</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="M11" s="7">
         <v>714</v>
@@ -7349,13 +7349,13 @@
         <v>575876</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,13 +7423,13 @@
         <v>65801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>502</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
@@ -7438,13 +7438,13 @@
         <v>104819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="M13" s="7">
         <v>245</v>
@@ -7453,13 +7453,13 @@
         <v>170620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>508</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7474,13 @@
         <v>255840</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>512</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>418</v>
@@ -7489,28 +7489,28 @@
         <v>323737</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M14" s="7">
         <v>645</v>
       </c>
       <c r="N14" s="7">
-        <v>579578</v>
+        <v>579577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>518</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,7 +7552,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750198</v>
+        <v>750197</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7578,13 +7578,13 @@
         <v>14227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -7593,13 +7593,13 @@
         <v>29413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>522</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -7608,13 +7608,13 @@
         <v>43640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,13 +7629,13 @@
         <v>181943</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H17" s="7">
         <v>420</v>
@@ -7644,13 +7644,13 @@
         <v>201398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>534</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>531</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>676</v>
@@ -7659,13 +7659,13 @@
         <v>383342</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,13 +7733,13 @@
         <v>35213</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -7748,13 +7748,13 @@
         <v>46588</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M19" s="7">
         <v>167</v>
@@ -7763,13 +7763,13 @@
         <v>81801</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>542</v>
+        <v>168</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7784,13 @@
         <v>242010</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H20" s="7">
         <v>353</v>
@@ -7799,13 +7799,13 @@
         <v>229034</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M20" s="7">
         <v>664</v>
@@ -7814,13 +7814,13 @@
         <v>471044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>552</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,13 +7888,13 @@
         <v>96159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>554</v>
+        <v>59</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H22" s="7">
         <v>266</v>
@@ -7903,13 +7903,13 @@
         <v>166315</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M22" s="7">
         <v>364</v>
@@ -7918,13 +7918,13 @@
         <v>262474</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,13 +7939,13 @@
         <v>530468</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>564</v>
+        <v>67</v>
       </c>
       <c r="H23" s="7">
         <v>694</v>
@@ -8046,10 +8046,10 @@
         <v>571</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
@@ -8058,13 +8058,13 @@
         <v>179740</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="M25" s="7">
         <v>345</v>
@@ -8073,10 +8073,10 @@
         <v>274915</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>578</v>
@@ -8100,7 +8100,7 @@
         <v>580</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>581</v>
+        <v>239</v>
       </c>
       <c r="H26" s="7">
         <v>820</v>
@@ -8109,13 +8109,13 @@
         <v>688694</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="M26" s="7">
         <v>1479</v>
@@ -8124,13 +8124,13 @@
         <v>1452947</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8204,7 +8204,7 @@
         <v>588</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="H28" s="7">
         <v>1264</v>
@@ -8246,13 +8246,13 @@
         <v>2847</v>
       </c>
       <c r="D29" s="7">
-        <v>2907280</v>
+        <v>2907281</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>595</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>596</v>
@@ -8297,7 +8297,7 @@
         <v>3373</v>
       </c>
       <c r="D30" s="7">
-        <v>3382924</v>
+        <v>3382925</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P9_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P9_1_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2AC07FB-C291-48DC-ACED-3BBD17FABE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8358270D-EA3C-4C76-A880-1E21E6A91E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1FEAC95B-5081-4733-8A2B-A72417602656}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98E22432-4649-4DEF-8BC3-B0A10F820E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>11,05%</t>
   </si>
   <si>
-    <t>7,65%</t>
+    <t>7,93%</t>
   </si>
   <si>
     <t>15,51%</t>
@@ -86,1704 +86,1758 @@
     <t>19,89%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>12,45%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>81,33%</t>
   </si>
   <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
   <si>
     <t>83,95%</t>
   </si>
   <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>91,39%</t>
   </si>
   <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
     <t>79,3%</t>
   </si>
   <si>
@@ -1805,9 +1859,6 @@
     <t>14,06%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
     <t>20,25%</t>
   </si>
   <si>
@@ -1820,18 +1871,12 @@
     <t>17,34%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
     <t>18,3%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>87,2%</t>
-  </si>
-  <si>
     <t>79,75%</t>
   </si>
   <si>
@@ -1845,9 +1890,6 @@
   </si>
   <si>
     <t>81,7%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA5CBF8-70D1-4214-84DA-11C623829D72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED14797-6492-4768-B549-8C47D6C594F1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3018,13 +3060,13 @@
         <v>25264</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -3033,13 +3075,13 @@
         <v>40682</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3096,13 @@
         <v>187891</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>175</v>
@@ -3069,13 +3111,13 @@
         <v>182404</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>364</v>
@@ -3084,13 +3126,13 @@
         <v>370294</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,7 +3188,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3158,13 +3200,13 @@
         <v>26784</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -3173,13 +3215,13 @@
         <v>47525</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>72</v>
@@ -3188,13 +3230,13 @@
         <v>74309</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3251,13 @@
         <v>244027</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -3224,13 +3266,13 @@
         <v>230619</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>464</v>
@@ -3239,13 +3281,13 @@
         <v>474646</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,7 +3343,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3313,13 +3355,13 @@
         <v>58951</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
@@ -3328,13 +3370,13 @@
         <v>89153</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>151</v>
@@ -3343,13 +3385,13 @@
         <v>148104</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3406,13 @@
         <v>556076</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>531</v>
@@ -3379,13 +3421,13 @@
         <v>549066</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1068</v>
@@ -3394,13 +3436,13 @@
         <v>1105142</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,7 +3498,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3471,10 +3513,10 @@
         <v>76</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>128</v>
@@ -3483,13 +3525,13 @@
         <v>140973</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>213</v>
@@ -3498,13 +3540,13 @@
         <v>221209</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,10 +3564,10 @@
         <v>85</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>617</v>
@@ -3534,13 +3576,13 @@
         <v>642538</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1268</v>
@@ -3549,13 +3591,13 @@
         <v>1306097</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,16 +3662,16 @@
         <v>300</v>
       </c>
       <c r="D28" s="7">
-        <v>296418</v>
+        <v>296417</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>530</v>
@@ -3638,13 +3680,13 @@
         <v>552134</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>830</v>
@@ -3653,13 +3695,13 @@
         <v>848551</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3716,13 @@
         <v>2980126</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="H29" s="7">
         <v>2767</v>
@@ -3689,13 +3731,13 @@
         <v>2827064</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>5681</v>
@@ -3704,13 +3746,13 @@
         <v>5807190</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3764,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3766,7 +3808,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3790,7 +3832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BD7CD0-5CB1-4FD2-912C-F6A115AC4C15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBB6BAA-214E-4191-9B5C-7065B5E80BA4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3807,7 +3849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3912,39 +3954,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,39 +3999,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,39 +4044,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4093,13 @@
         <v>55636</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -4066,13 +4108,13 @@
         <v>99391</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -4081,13 +4123,13 @@
         <v>155027</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,10 +4147,10 @@
         <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>390</v>
@@ -4117,13 +4159,13 @@
         <v>424374</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>817</v>
@@ -4132,13 +4174,13 @@
         <v>874265</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4248,13 @@
         <v>39817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4221,13 +4263,13 @@
         <v>67053</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -4236,13 +4278,13 @@
         <v>106870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4299,13 @@
         <v>284229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>256</v>
@@ -4272,13 +4314,13 @@
         <v>273967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>539</v>
@@ -4287,13 +4329,13 @@
         <v>558196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4403,13 @@
         <v>100531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>196</v>
@@ -4376,13 +4418,13 @@
         <v>207261</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>293</v>
@@ -4391,13 +4433,13 @@
         <v>307791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4454,13 @@
         <v>568189</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -4427,13 +4469,13 @@
         <v>468935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>960</v>
@@ -4442,13 +4484,13 @@
         <v>1037125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4558,13 @@
         <v>26695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -4531,13 +4573,13 @@
         <v>54769</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4546,13 +4588,13 @@
         <v>81464</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4609,13 @@
         <v>185923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -4582,13 +4624,13 @@
         <v>164822</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>331</v>
@@ -4597,13 +4639,13 @@
         <v>350745</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,7 +4701,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4671,13 +4713,13 @@
         <v>37418</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -4686,13 +4728,13 @@
         <v>48657</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>248</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -4701,13 +4743,13 @@
         <v>86075</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4764,13 @@
         <v>236563</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -4737,13 +4779,13 @@
         <v>231374</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>257</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>447</v>
@@ -4752,13 +4794,13 @@
         <v>467937</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,7 +4856,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4826,13 +4868,13 @@
         <v>61676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>100</v>
@@ -4841,13 +4883,13 @@
         <v>110696</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -4856,13 +4898,13 @@
         <v>172372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4919,13 @@
         <v>601112</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>536</v>
@@ -4892,13 +4934,13 @@
         <v>583157</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>1096</v>
@@ -4907,13 +4949,13 @@
         <v>1184269</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,7 +5011,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4981,13 +5023,13 @@
         <v>89551</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -4996,13 +5038,13 @@
         <v>155089</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>219</v>
@@ -5011,13 +5053,13 @@
         <v>244640</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5074,13 @@
         <v>689547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>616</v>
@@ -5047,13 +5089,13 @@
         <v>668764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>1255</v>
@@ -5062,13 +5104,13 @@
         <v>1358311</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5178,13 @@
         <v>411325</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>687</v>
@@ -5151,13 +5193,13 @@
         <v>742915</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>1062</v>
@@ -5166,13 +5208,13 @@
         <v>1154239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5229,13 @@
         <v>3015454</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>2611</v>
@@ -5202,13 +5244,13 @@
         <v>2815394</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>5445</v>
@@ -5217,13 +5259,13 @@
         <v>5830849</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,7 +5321,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5303,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34C81A6-7F19-4B52-8AE3-DEBA437789F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36103C0-C3BD-4CD4-8F91-1D06CF906198}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5320,7 +5362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5427,13 +5469,13 @@
         <v>36513</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -5442,13 +5484,13 @@
         <v>75818</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -5457,13 +5499,13 @@
         <v>112331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5520,13 @@
         <v>257248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>209</v>
@@ -5493,13 +5535,13 @@
         <v>212885</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>441</v>
@@ -5508,13 +5550,13 @@
         <v>470133</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5624,13 @@
         <v>42702</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -5597,13 +5639,13 @@
         <v>86560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -5612,13 +5654,13 @@
         <v>129262</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5675,13 @@
         <v>459873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -5648,13 +5690,13 @@
         <v>436524</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>843</v>
@@ -5663,13 +5705,13 @@
         <v>896397</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5779,13 @@
         <v>27498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -5752,13 +5794,13 @@
         <v>41110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -5767,13 +5809,13 @@
         <v>68608</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5830,13 @@
         <v>291067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>297</v>
@@ -5803,13 +5845,13 @@
         <v>295199</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>602</v>
@@ -5818,13 +5860,13 @@
         <v>586266</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5934,13 @@
         <v>62944</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -5907,13 +5949,13 @@
         <v>125882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>170</v>
@@ -5922,13 +5964,13 @@
         <v>188827</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5985,13 @@
         <v>307020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>248</v>
@@ -5958,13 +6000,13 @@
         <v>261401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>542</v>
@@ -5973,13 +6015,13 @@
         <v>568420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6089,13 @@
         <v>17363</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -6062,13 +6104,13 @@
         <v>29183</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6077,13 +6119,13 @@
         <v>46546</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6140,13 @@
         <v>193858</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -6113,13 +6155,13 @@
         <v>189404</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -6128,13 +6170,13 @@
         <v>383262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6232,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6202,13 +6244,13 @@
         <v>43702</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -6217,13 +6259,13 @@
         <v>66479</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
@@ -6232,13 +6274,13 @@
         <v>110181</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6295,13 @@
         <v>219421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -6268,13 +6310,13 @@
         <v>206636</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>419</v>
@@ -6283,13 +6325,13 @@
         <v>426057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,7 +6387,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6357,13 +6399,13 @@
         <v>71804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>411</v>
+        <v>232</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="H22" s="7">
         <v>125</v>
@@ -6372,13 +6414,13 @@
         <v>144634</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -6387,13 +6429,13 @@
         <v>216437</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6450,13 @@
         <v>584754</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>420</v>
+        <v>242</v>
       </c>
       <c r="H23" s="7">
         <v>521</v>
@@ -6423,13 +6465,13 @@
         <v>546660</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>1036</v>
@@ -6438,13 +6480,13 @@
         <v>1131415</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,7 +6542,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6512,13 +6554,13 @@
         <v>53175</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>98</v>
@@ -6527,13 +6569,13 @@
         <v>119652</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>150</v>
@@ -6542,13 +6584,13 @@
         <v>172827</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6605,13 @@
         <v>725408</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>657</v>
@@ -6578,13 +6620,13 @@
         <v>706515</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>1355</v>
@@ -6593,13 +6635,13 @@
         <v>1431923</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6709,13 @@
         <v>355699</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="H28" s="7">
         <v>596</v>
@@ -6682,13 +6724,13 @@
         <v>689319</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>942</v>
@@ -6697,13 +6739,13 @@
         <v>1045018</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6760,13 @@
         <v>3038651</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="H29" s="7">
         <v>2742</v>
@@ -6733,13 +6775,13 @@
         <v>2855223</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="M29" s="7">
         <v>5627</v>
@@ -6748,13 +6790,13 @@
         <v>5893874</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6852,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6834,7 +6876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE21A2EC-B5E2-4615-B7DA-2E79E54206D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D724DDF-0878-41C7-BF92-265F8DE713A1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6851,7 +6893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6958,13 +7000,13 @@
         <v>25134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>79</v>
@@ -6973,13 +7015,13 @@
         <v>35626</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>112</v>
@@ -6988,13 +7030,13 @@
         <v>60760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,13 +7051,13 @@
         <v>235164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>459</v>
@@ -7024,13 +7066,13 @@
         <v>235777</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>757</v>
@@ -7039,13 +7081,13 @@
         <v>470940</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7155,13 @@
         <v>95919</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>199</v>
@@ -7128,13 +7170,13 @@
         <v>137469</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>493</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="M7" s="7">
         <v>284</v>
@@ -7143,13 +7185,13 @@
         <v>233387</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7206,13 @@
         <v>423378</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -7179,13 +7221,13 @@
         <v>417097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>815</v>
@@ -7194,13 +7236,13 @@
         <v>840477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7310,13 @@
         <v>48017</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>120</v>
@@ -7283,13 +7325,13 @@
         <v>70961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>181</v>
@@ -7298,13 +7340,13 @@
         <v>118978</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7361,13 @@
         <v>274223</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>415</v>
@@ -7334,13 +7376,13 @@
         <v>301652</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>714</v>
@@ -7349,13 +7391,13 @@
         <v>575876</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,13 +7465,13 @@
         <v>65801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
@@ -7438,13 +7480,13 @@
         <v>104819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>245</v>
@@ -7453,13 +7495,13 @@
         <v>170620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7516,13 @@
         <v>255840</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>418</v>
@@ -7489,13 +7531,13 @@
         <v>323737</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>645</v>
@@ -7504,13 +7546,13 @@
         <v>579577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,13 +7620,13 @@
         <v>14227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>523</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -7593,13 +7635,13 @@
         <v>29413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -7608,13 +7650,13 @@
         <v>43640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,13 +7671,13 @@
         <v>181943</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>531</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="H17" s="7">
         <v>420</v>
@@ -7644,13 +7686,13 @@
         <v>201398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>676</v>
@@ -7659,13 +7701,13 @@
         <v>383342</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,7 +7763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7733,13 +7775,13 @@
         <v>35213</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>539</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -7748,13 +7790,13 @@
         <v>46588</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="M19" s="7">
         <v>167</v>
@@ -7763,13 +7805,13 @@
         <v>81801</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7826,13 @@
         <v>242010</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>547</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="H20" s="7">
         <v>353</v>
@@ -7799,13 +7841,13 @@
         <v>229034</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="M20" s="7">
         <v>664</v>
@@ -7814,13 +7856,13 @@
         <v>471044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,7 +7918,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7888,13 +7930,13 @@
         <v>96159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>59</v>
+        <v>572</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="H22" s="7">
         <v>266</v>
@@ -7903,13 +7945,13 @@
         <v>166315</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="M22" s="7">
         <v>364</v>
@@ -7918,13 +7960,13 @@
         <v>262474</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>560</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,13 +7981,13 @@
         <v>530468</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>67</v>
+        <v>581</v>
       </c>
       <c r="H23" s="7">
         <v>694</v>
@@ -7954,13 +7996,13 @@
         <v>637888</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="M23" s="7">
         <v>1194</v>
@@ -7969,13 +8011,13 @@
         <v>1168356</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>568</v>
+        <v>438</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,7 +8073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8043,13 +8085,13 @@
         <v>95176</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>230</v>
+        <v>588</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
@@ -8058,13 +8100,13 @@
         <v>179740</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="M25" s="7">
         <v>345</v>
@@ -8073,13 +8115,13 @@
         <v>274915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,13 +8136,13 @@
         <v>764252</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>239</v>
+        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>820</v>
@@ -8109,13 +8151,13 @@
         <v>688694</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>1479</v>
@@ -8124,13 +8166,13 @@
         <v>1452947</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,10 +8240,10 @@
         <v>475644</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>588</v>
+        <v>150</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -8213,13 +8255,13 @@
         <v>770931</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="M28" s="7">
         <v>1790</v>
@@ -8228,13 +8270,13 @@
         <v>1246575</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>593</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,13 +8291,13 @@
         <v>2907281</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>596</v>
+        <v>159</v>
       </c>
       <c r="H29" s="7">
         <v>4097</v>
@@ -8264,13 +8306,13 @@
         <v>3035278</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="M29" s="7">
         <v>6944</v>
@@ -8279,13 +8321,13 @@
         <v>5942559</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,7 +8383,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
